--- a/team_name_current_score_optional_bounsIF_HAVE_2.xlsx
+++ b/team_name_current_score_optional_bounsIF_HAVE_2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17321057-B602-4F73-9AE6-660341E3F445}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D35392-A43E-FD4B-B572-7AAE50D438CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="840" windowWidth="15900" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Scoring Item</t>
   </si>
@@ -273,9 +273,6 @@
     <t>ACC&lt;=70%</t>
   </si>
   <si>
-    <t>https://github.com/NukeyFox?tab=stars</t>
-  </si>
-  <si>
     <t>https://github.com/NukeyFox/mindspore</t>
   </si>
   <si>
@@ -288,6 +285,12 @@
   <si>
     <t>e.g.:
 Accuracy=38.49%</t>
+  </si>
+  <si>
+    <t>https://github.com/NukeyFox?tab=stars https://github.com/safiyya-ona?tab=stars</t>
+  </si>
+  <si>
+    <t>https://github.com/mindspore-ai/mindspore/pull/107</t>
   </si>
 </sst>
 </file>
@@ -918,18 +921,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="57.1640625" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="72.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="72.5" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1">
@@ -1016,7 +1019,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="0"/>
@@ -1035,7 +1038,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="0"/>
@@ -1051,13 +1054,15 @@
         <v>10</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
+      <c r="E7" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="103.5">
+    <row r="8" spans="1:6" ht="114">
       <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
@@ -1071,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="6">
         <f>IF(D8="ACC&gt;90%",60,IF(D8="ACC&gt;80% and ACC&lt;=90%",50,IF(D8="ACC&gt;70% and ACC&lt;=80%",40,IF(D8="ACC&lt;=70%",30,0))))</f>
@@ -1105,7 +1110,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>20</v>
@@ -1119,7 +1124,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:6" ht="22.5">
+    <row r="12" spans="1:6" ht="23">
       <c r="A12" s="21" t="s">
         <v>14</v>
       </c>
@@ -1129,7 +1134,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:6" ht="22.5">
+    <row r="13" spans="1:6" ht="23">
       <c r="A13" s="21" t="s">
         <v>14</v>
       </c>
@@ -1139,7 +1144,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="22.5">
+    <row r="14" spans="1:6" ht="23">
       <c r="A14" s="21" t="s">
         <v>15</v>
       </c>
@@ -1149,7 +1154,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="17.25">
+    <row r="15" spans="1:6" ht="18">
       <c r="A15" s="18"/>
       <c r="B15" s="1"/>
       <c r="C15" s="18"/>
@@ -1173,7 +1178,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{A31B6153-0311-4B5E-9CA7-555715F6E6CA}"/>
+    <hyperlink ref="E5" r:id="rId1" display="https://github.com/NukeyFox?tab=stars" xr:uid="{A31B6153-0311-4B5E-9CA7-555715F6E6CA}"/>
     <hyperlink ref="E6" r:id="rId2" xr:uid="{0BD74645-1E1B-4BAB-A3A5-C24B501E5189}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/team_name_current_score_optional_bounsIF_HAVE_2.xlsx
+++ b/team_name_current_score_optional_bounsIF_HAVE_2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D35392-A43E-FD4B-B572-7AAE50D438CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C645BF03-AF54-47EB-8844-1BDCEE5B62DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Scoring Item</t>
   </si>
@@ -922,17 +922,17 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="57.1640625" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="72.5" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="72.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1">
@@ -1053,16 +1053,18 @@
       <c r="C7" s="4">
         <v>10</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="E7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="103.5">
       <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
@@ -1093,7 +1095,7 @@
       </c>
       <c r="F9" s="12">
         <f>SUM(F3:F8)</f>
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="231" customHeight="1">
@@ -1124,7 +1126,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:6" ht="23">
+    <row r="12" spans="1:6" ht="22.5">
       <c r="A12" s="21" t="s">
         <v>14</v>
       </c>
@@ -1134,7 +1136,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:6" ht="23">
+    <row r="13" spans="1:6" ht="22.5">
       <c r="A13" s="21" t="s">
         <v>14</v>
       </c>
@@ -1144,7 +1146,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="23">
+    <row r="14" spans="1:6" ht="22.5">
       <c r="A14" s="21" t="s">
         <v>15</v>
       </c>
@@ -1154,7 +1156,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="18">
+    <row r="15" spans="1:6" ht="17.25">
       <c r="A15" s="18"/>
       <c r="B15" s="1"/>
       <c r="C15" s="18"/>
